--- a/Data/EC/NIT-9001875625.xlsx
+++ b/Data/EC/NIT-9001875625.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF2F1FD8-0002-4852-99D4-B2149ED4C90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7E9320-8705-4C75-9F95-71036719E6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2CF33FBE-E36D-4F3F-A649-E80227B769CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6EAC10F-2C3D-4F7B-9955-A2CA54ABC104}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="93">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,106 +65,187 @@
     <t>CC</t>
   </si>
   <si>
+    <t>7426413</t>
+  </si>
+  <si>
+    <t>ALVARO BAYTER TORRES</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047473743</t>
+  </si>
+  <si>
+    <t>OSMEL BERRIO DE AVILA</t>
+  </si>
+  <si>
+    <t>4863889</t>
+  </si>
+  <si>
+    <t>HECTOR ASPRILLA MOSQUERA</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
     <t>92640823</t>
   </si>
   <si>
     <t>GUSTAVO ADOLFO ARRIETA FLOREZ</t>
   </si>
   <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>7426413</t>
-  </si>
-  <si>
-    <t>ALVARO BAYTER TORRES</t>
-  </si>
-  <si>
-    <t>1047473743</t>
-  </si>
-  <si>
-    <t>OSMEL BERRIO DE AVILA</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
+    <t>1039447085</t>
+  </si>
+  <si>
+    <t>DIEGO LEON TABORDA ALARCON</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>1047451407</t>
+  </si>
+  <si>
+    <t>ARLIN GARCIA CORDERO</t>
+  </si>
+  <si>
+    <t>2108</t>
   </si>
   <si>
     <t>1193573652</t>
@@ -173,85 +254,34 @@
     <t>ISRAEL JOSE BANQUEZ RODRIGUEZ</t>
   </si>
   <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
     <t>1049830695</t>
   </si>
   <si>
     <t>YENIS TORRES ANAYA</t>
   </si>
   <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1047451407</t>
-  </si>
-  <si>
-    <t>ARLIN GARCIA CORDERO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
     <t>1053612998</t>
   </si>
   <si>
     <t>B RAYAN FERNEY OCHOA GARCIA</t>
   </si>
   <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
     <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -665,7 +695,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06EDC18-A2C9-7423-F5D5-0C0D1DD93627}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4F889C-F214-EC68-F366-7BE84C9C05A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1016,8 +1046,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52B747BC-3CBD-4269-9DC4-25DF86BA1020}">
-  <dimension ref="B2:J91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA68741-7691-4F79-80CA-69FD442B4FF4}">
+  <dimension ref="B2:J98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1041,7 +1071,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1086,7 +1116,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1118,12 +1148,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3052988</v>
+        <v>3310042</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1164,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F13" s="5">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1171,13 +1201,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1194,10 +1224,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1208,13 +1238,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
       </c>
       <c r="F17" s="18">
         <v>48000</v>
@@ -1231,19 +1261,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>27578</v>
+        <v>48000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1260,13 +1290,13 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G19" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1277,13 +1307,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>48000</v>
@@ -1306,13 +1336,13 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G21" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1323,10 +1353,10 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
@@ -1355,10 +1385,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G23" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1369,13 +1399,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>48000</v>
@@ -1392,13 +1422,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>48000</v>
@@ -1421,13 +1451,13 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G26" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1444,13 +1474,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G27" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1461,13 +1491,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>48000</v>
@@ -1490,13 +1520,13 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G29" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1507,13 +1537,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>48000</v>
@@ -1530,13 +1560,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>48000</v>
@@ -1559,13 +1589,13 @@
         <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G32" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1576,13 +1606,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>48000</v>
@@ -1605,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1628,13 +1658,13 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G35" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1645,13 +1675,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>48000</v>
@@ -1674,13 +1704,13 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G37" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1691,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>48000</v>
@@ -1714,13 +1744,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>48000</v>
@@ -1743,13 +1773,13 @@
         <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G40" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1766,13 +1796,13 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G41" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1783,13 +1813,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>48000</v>
@@ -1812,13 +1842,13 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G43" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1829,13 +1859,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>48000</v>
@@ -1858,13 +1888,13 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G45" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1875,13 +1905,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>48000</v>
@@ -1898,13 +1928,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>48000</v>
@@ -1921,13 +1951,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>48000</v>
@@ -1944,13 +1974,13 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>48000</v>
@@ -1967,13 +1997,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>48000</v>
@@ -1990,13 +2020,13 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>48000</v>
@@ -2013,13 +2043,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>48000</v>
@@ -2036,13 +2066,13 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>48000</v>
@@ -2059,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>48000</v>
@@ -2082,13 +2112,13 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>48000</v>
@@ -2105,13 +2135,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>48000</v>
@@ -2128,19 +2158,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="F57" s="18">
-        <v>48000</v>
+        <v>27578</v>
       </c>
       <c r="G57" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2151,19 +2181,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F58" s="18">
-        <v>48000</v>
+        <v>29509</v>
       </c>
       <c r="G58" s="18">
-        <v>1200000</v>
+        <v>737717</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2174,19 +2204,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F59" s="18">
-        <v>48000</v>
+        <v>29509</v>
       </c>
       <c r="G59" s="18">
-        <v>1200000</v>
+        <v>737717</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2197,19 +2227,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="F60" s="18">
-        <v>34800</v>
+        <v>29509</v>
       </c>
       <c r="G60" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2220,19 +2250,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F61" s="18">
-        <v>48000</v>
+        <v>29509</v>
       </c>
       <c r="G61" s="18">
-        <v>1200000</v>
+        <v>737717</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2243,19 +2273,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="F62" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G62" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2266,19 +2296,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="F63" s="18">
-        <v>36000</v>
+        <v>29509</v>
       </c>
       <c r="G63" s="18">
-        <v>900000</v>
+        <v>737717</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2289,19 +2319,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F64" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G64" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2312,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F65" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G65" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2335,19 +2365,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="F66" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G66" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2358,19 +2388,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F67" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G67" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2381,19 +2411,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F68" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G68" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2404,19 +2434,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="F69" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G69" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2427,19 +2457,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F70" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G70" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2450,19 +2480,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F71" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G71" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2473,19 +2503,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F72" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G72" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2496,19 +2526,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F73" s="18">
-        <v>36000</v>
+        <v>25774</v>
       </c>
       <c r="G73" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2519,19 +2549,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F74" s="18">
-        <v>36000</v>
+        <v>25774</v>
       </c>
       <c r="G74" s="18">
-        <v>900000</v>
+        <v>781242</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2542,19 +2572,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F75" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G75" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2565,19 +2595,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F76" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G76" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2588,19 +2618,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="F77" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G77" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2611,19 +2641,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D78" s="17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E78" s="16" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F78" s="18">
-        <v>72000</v>
+        <v>25774</v>
       </c>
       <c r="G78" s="18">
-        <v>1800000</v>
+        <v>781242</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2634,19 +2664,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D79" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E79" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F79" s="18">
-        <v>60000</v>
+        <v>80000</v>
       </c>
       <c r="G79" s="18">
-        <v>1500000</v>
+        <v>2000000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2657,19 +2687,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F80" s="18">
-        <v>60000</v>
+        <v>72000</v>
       </c>
       <c r="G80" s="18">
-        <v>1500000</v>
+        <v>1800000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2680,19 +2710,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="F81" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G81" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2703,19 +2733,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F82" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G82" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2726,19 +2756,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="F83" s="18">
-        <v>60000</v>
+        <v>34800</v>
       </c>
       <c r="G83" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2749,75 +2779,236 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="F84" s="18">
-        <v>60000</v>
+        <v>36000</v>
       </c>
       <c r="G84" s="18">
-        <v>1500000</v>
+        <v>900000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E85" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="F85" s="24">
+      <c r="B85" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85" s="18">
+        <v>36000</v>
+      </c>
+      <c r="G85" s="18">
+        <v>900000</v>
+      </c>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="20"/>
+    </row>
+    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F86" s="18">
         <v>60000</v>
       </c>
-      <c r="G85" s="24">
+      <c r="G86" s="18">
         <v>1500000</v>
       </c>
-      <c r="H85" s="25"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="20"/>
+    </row>
+    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B87" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F87" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G87" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="20"/>
+    </row>
+    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B88" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F88" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G88" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="20"/>
+    </row>
+    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B89" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F89" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G89" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="20"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="32" t="s">
+      <c r="B90" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F90" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G90" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="20"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B91" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" s="18">
+        <v>60000</v>
+      </c>
+      <c r="G91" s="18">
+        <v>1500000</v>
+      </c>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="20"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B92" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D92" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E92" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="32"/>
-      <c r="H90" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C91" s="32"/>
-      <c r="H91" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
+      <c r="F92" s="24">
+        <v>60000</v>
+      </c>
+      <c r="G92" s="24">
+        <v>1500000</v>
+      </c>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="26"/>
+    </row>
+    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B97" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C97" s="32"/>
+      <c r="H97" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+    </row>
+    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B98" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C98" s="32"/>
+      <c r="H98" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="H98:J98"/>
+    <mergeCell ref="H97:J97"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9001875625.xlsx
+++ b/Data/EC/NIT-9001875625.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F7E9320-8705-4C75-9F95-71036719E6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59E1F32B-4367-464C-BF90-34006CF99B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{F6EAC10F-2C3D-4F7B-9955-A2CA54ABC104}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8572A8AC-0388-47BB-8E51-7781349531A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="83">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,217 +71,187 @@
     <t>ALVARO BAYTER TORRES</t>
   </si>
   <si>
+    <t>1607</t>
+  </si>
+  <si>
+    <t>1047473743</t>
+  </si>
+  <si>
+    <t>OSMEL BERRIO DE AVILA</t>
+  </si>
+  <si>
+    <t>92640823</t>
+  </si>
+  <si>
+    <t>GUSTAVO ADOLFO ARRIETA FLOREZ</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1193573652</t>
+  </si>
+  <si>
+    <t>ISRAEL JOSE BANQUEZ RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1049830695</t>
+  </si>
+  <si>
+    <t>YENIS TORRES ANAYA</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
     <t>1911</t>
   </si>
   <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1607</t>
-  </si>
-  <si>
-    <t>1047473743</t>
-  </si>
-  <si>
-    <t>OSMEL BERRIO DE AVILA</t>
-  </si>
-  <si>
-    <t>4863889</t>
-  </si>
-  <si>
-    <t>HECTOR ASPRILLA MOSQUERA</t>
-  </si>
-  <si>
-    <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>92640823</t>
-  </si>
-  <si>
-    <t>GUSTAVO ADOLFO ARRIETA FLOREZ</t>
-  </si>
-  <si>
-    <t>1039447085</t>
-  </si>
-  <si>
-    <t>DIEGO LEON TABORDA ALARCON</t>
+    <t>1047451407</t>
+  </si>
+  <si>
+    <t>ARLIN GARCIA CORDERO</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>1053612998</t>
+  </si>
+  <si>
+    <t>B RAYAN FERNEY OCHOA GARCIA</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
   </si>
   <si>
     <t>2201</t>
   </si>
   <si>
-    <t>1047451407</t>
-  </si>
-  <si>
-    <t>ARLIN GARCIA CORDERO</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>1193573652</t>
-  </si>
-  <si>
-    <t>ISRAEL JOSE BANQUEZ RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>1049830695</t>
-  </si>
-  <si>
-    <t>YENIS TORRES ANAYA</t>
-  </si>
-  <si>
-    <t>1053612998</t>
-  </si>
-  <si>
-    <t>B RAYAN FERNEY OCHOA GARCIA</t>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
   </si>
   <si>
     <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -380,7 +350,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -393,9 +365,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -595,23 +565,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -639,10 +609,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +665,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF4F889C-F214-EC68-F366-7BE84C9C05A1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99098FE0-8DCA-83F4-C69F-DC2230D3EB40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1046,8 +1016,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADA68741-7691-4F79-80CA-69FD442B4FF4}">
-  <dimension ref="B2:J98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876A9419-F312-4C1F-8016-6E822E62818C}">
+  <dimension ref="B2:J91"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1071,7 +1041,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1116,7 +1086,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1148,12 +1118,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3310042</v>
+        <v>3052988</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1164,17 +1134,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1201,13 +1171,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1238,19 +1208,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>48000</v>
+        <v>27578</v>
       </c>
       <c r="G17" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1261,19 +1231,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G18" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1290,7 +1260,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>48000</v>
@@ -1307,19 +1277,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G20" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1336,7 +1306,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F21" s="18">
         <v>48000</v>
@@ -1353,19 +1323,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G22" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1399,19 +1369,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G24" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1428,7 +1398,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F25" s="18">
         <v>48000</v>
@@ -1445,19 +1415,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F26" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G26" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1474,7 +1444,7 @@
         <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F27" s="18">
         <v>48000</v>
@@ -1491,19 +1461,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F28" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G28" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1520,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F29" s="18">
         <v>48000</v>
@@ -1537,19 +1507,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F30" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G30" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1566,7 +1536,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F31" s="18">
         <v>48000</v>
@@ -1583,19 +1553,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F32" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G32" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1612,7 +1582,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F33" s="18">
         <v>48000</v>
@@ -1629,19 +1599,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F34" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G34" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1658,7 +1628,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F35" s="18">
         <v>48000</v>
@@ -1675,19 +1645,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G36" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1704,7 +1674,7 @@
         <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F37" s="18">
         <v>48000</v>
@@ -1721,19 +1691,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F38" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G38" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1750,7 +1720,7 @@
         <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F39" s="18">
         <v>48000</v>
@@ -1767,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="F40" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G40" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1796,7 +1766,7 @@
         <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F41" s="18">
         <v>48000</v>
@@ -1813,19 +1783,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="F42" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G42" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1842,7 +1812,7 @@
         <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F43" s="18">
         <v>48000</v>
@@ -1859,19 +1829,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F44" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G44" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1888,7 +1858,7 @@
         <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F45" s="18">
         <v>48000</v>
@@ -1905,19 +1875,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F46" s="18">
-        <v>48000</v>
+        <v>25774</v>
       </c>
       <c r="G46" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1934,7 +1904,7 @@
         <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F47" s="18">
         <v>48000</v>
@@ -1957,7 +1927,7 @@
         <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F48" s="18">
         <v>48000</v>
@@ -1980,7 +1950,7 @@
         <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
         <v>48000</v>
@@ -2003,7 +1973,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F50" s="18">
         <v>48000</v>
@@ -2026,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F51" s="18">
         <v>48000</v>
@@ -2049,7 +2019,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F52" s="18">
         <v>48000</v>
@@ -2072,7 +2042,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F53" s="18">
         <v>48000</v>
@@ -2095,7 +2065,7 @@
         <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F54" s="18">
         <v>48000</v>
@@ -2118,7 +2088,7 @@
         <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F55" s="18">
         <v>48000</v>
@@ -2141,7 +2111,7 @@
         <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F56" s="18">
         <v>48000</v>
@@ -2158,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="F57" s="18">
-        <v>27578</v>
+        <v>48000</v>
       </c>
       <c r="G57" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2181,19 +2151,19 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>1200000</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2204,19 +2174,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>1200000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2227,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>34800</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2250,19 +2220,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>1200000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2273,19 +2243,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="F62" s="18">
-        <v>29509</v>
+        <v>36000</v>
       </c>
       <c r="G62" s="18">
-        <v>737717</v>
+        <v>900000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2296,19 +2266,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="F63" s="18">
-        <v>29509</v>
+        <v>48000</v>
       </c>
       <c r="G63" s="18">
-        <v>737717</v>
+        <v>1200000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2319,19 +2289,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="F64" s="18">
-        <v>25774</v>
+        <v>36000</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>900000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2342,19 +2312,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F65" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G65" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2365,19 +2335,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F66" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G66" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2388,19 +2358,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F67" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G67" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2411,19 +2381,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F68" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G68" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2434,19 +2404,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F69" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G69" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2457,19 +2427,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F70" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G70" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2480,19 +2450,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F71" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G71" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2503,19 +2473,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="F72" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G72" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2526,19 +2496,19 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="F73" s="18">
-        <v>25774</v>
+        <v>36000</v>
       </c>
       <c r="G73" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
@@ -2549,19 +2519,19 @@
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F74" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G74" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
@@ -2572,19 +2542,19 @@
         <v>8</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="F75" s="18">
-        <v>25774</v>
+        <v>36000</v>
       </c>
       <c r="G75" s="18">
-        <v>781242</v>
+        <v>1000000</v>
       </c>
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
@@ -2595,19 +2565,19 @@
         <v>8</v>
       </c>
       <c r="C76" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D76" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="F76" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G76" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
@@ -2618,19 +2588,19 @@
         <v>8</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="D77" s="17" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="F77" s="18">
-        <v>25774</v>
+        <v>48000</v>
       </c>
       <c r="G77" s="18">
-        <v>781242</v>
+        <v>1200000</v>
       </c>
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
@@ -2641,19 +2611,19 @@
         <v>8</v>
       </c>
       <c r="C78" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D78" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E78" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D78" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E78" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="F78" s="18">
-        <v>25774</v>
+        <v>72000</v>
       </c>
       <c r="G78" s="18">
-        <v>781242</v>
+        <v>1800000</v>
       </c>
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
@@ -2664,19 +2634,19 @@
         <v>8</v>
       </c>
       <c r="C79" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D79" s="17" t="s">
+      <c r="E79" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="E79" s="16" t="s">
-        <v>66</v>
-      </c>
       <c r="F79" s="18">
-        <v>80000</v>
+        <v>60000</v>
       </c>
       <c r="G79" s="18">
-        <v>2000000</v>
+        <v>1500000</v>
       </c>
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
@@ -2687,19 +2657,19 @@
         <v>8</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E80" s="16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F80" s="18">
-        <v>72000</v>
+        <v>60000</v>
       </c>
       <c r="G80" s="18">
-        <v>1800000</v>
+        <v>1500000</v>
       </c>
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
@@ -2710,19 +2680,19 @@
         <v>8</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E81" s="16" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F81" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G81" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
@@ -2733,19 +2703,19 @@
         <v>8</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D82" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E82" s="16" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="F82" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G82" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
@@ -2756,19 +2726,19 @@
         <v>8</v>
       </c>
       <c r="C83" s="16" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E83" s="16" t="s">
-        <v>24</v>
+        <v>69</v>
       </c>
       <c r="F83" s="18">
-        <v>34800</v>
+        <v>60000</v>
       </c>
       <c r="G83" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
@@ -2779,236 +2749,75 @@
         <v>8</v>
       </c>
       <c r="C84" s="16" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E84" s="16" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="F84" s="18">
-        <v>36000</v>
+        <v>60000</v>
       </c>
       <c r="G84" s="18">
-        <v>900000</v>
+        <v>1500000</v>
       </c>
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="20"/>
     </row>
     <row r="85" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B85" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F85" s="18">
-        <v>36000</v>
-      </c>
-      <c r="G85" s="18">
-        <v>900000</v>
-      </c>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="20"/>
-    </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B86" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C86" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D86" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="F86" s="18">
+      <c r="B85" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F85" s="24">
         <v>60000</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G85" s="24">
         <v>1500000</v>
       </c>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="20"/>
-    </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B87" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D87" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E87" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F87" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G87" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="20"/>
-    </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B88" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E88" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F88" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G88" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="20"/>
-    </row>
-    <row r="89" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B89" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E89" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="F89" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G89" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="20"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="26"/>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B90" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F90" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G90" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="20"/>
+      <c r="B90" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" s="32"/>
+      <c r="H90" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B91" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D91" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E91" s="16" t="s">
+      <c r="B91" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="F91" s="18">
-        <v>60000</v>
-      </c>
-      <c r="G91" s="18">
-        <v>1500000</v>
-      </c>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="20"/>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B92" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D92" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E92" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F92" s="24">
-        <v>60000</v>
-      </c>
-      <c r="G92" s="24">
-        <v>1500000</v>
-      </c>
-      <c r="H92" s="25"/>
-      <c r="I92" s="25"/>
-      <c r="J92" s="26"/>
-    </row>
-    <row r="97" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B97" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="C97" s="32"/>
-      <c r="H97" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B98" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C98" s="32"/>
-      <c r="H98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
+      <c r="C91" s="32"/>
+      <c r="H91" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="H98:J98"/>
-    <mergeCell ref="H97:J97"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="H90:J90"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
